--- a/df_2/df_2_12.xlsx
+++ b/df_2/df_2_12.xlsx
@@ -659,377 +659,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.6874 %</t>
+          <t>6,6874</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6793 %</t>
+          <t>0,6793</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8352 %</t>
+          <t>0,8352</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.3827 %</t>
+          <t>1,3827</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.4086 %</t>
+          <t>1,4086</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0342 %</t>
+          <t>1,0342</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9605 %</t>
+          <t>0,9605</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.4759 %</t>
+          <t>1,4759</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.3129 %</t>
+          <t>1,3129</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.51 %</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.8526 %</t>
+          <t>1,8526</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.0992 %</t>
+          <t>2,0992</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.7461 %</t>
+          <t>1,7461</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.1013 %</t>
+          <t>2,1013</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.5191 %</t>
+          <t>2,5191</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.7154 %</t>
+          <t>1,7154</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.9205 %</t>
+          <t>1,9205</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.041 %</t>
+          <t>2,041</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.3645 %</t>
+          <t>2,3645</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.8069 %</t>
+          <t>1,8069</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.2628 %</t>
+          <t>1,2628</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.4597 %</t>
+          <t>1,4597</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.6585 %</t>
+          <t>1,6585</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.6982 %</t>
+          <t>1,6982</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.2655 %</t>
+          <t>1,2655</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.7147 %</t>
+          <t>1,7147</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.5388 %</t>
+          <t>1,5388</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.7563 %</t>
+          <t>1,7563</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.221 %</t>
+          <t>1,221</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1.5617 %</t>
+          <t>1,5617</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.3442 %</t>
+          <t>1,3442</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.1269 %</t>
+          <t>1,1269</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1.0537 %</t>
+          <t>1,0537</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.791 %</t>
+          <t>1,791</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.6553 %</t>
+          <t>1,6553</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.1788 %</t>
+          <t>1,1788</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.7993 %</t>
+          <t>0,7993</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.0656 %</t>
+          <t>1,0656</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.5474 %</t>
+          <t>1,5474</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.1982 %</t>
+          <t>1,1982</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.659 %</t>
+          <t>0,659</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.1333 %</t>
+          <t>1,1333</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.0269 %</t>
+          <t>1,0269</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.8292 %</t>
+          <t>0,8292</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.8299 %</t>
+          <t>0,8299</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.6396 %</t>
+          <t>0,6396</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.874 %</t>
+          <t>0,874</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.5936 %</t>
+          <t>0,5936</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.1208 %</t>
+          <t>1,1208</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.0097 %</t>
+          <t>1,0097</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.8815 %</t>
+          <t>0,8815</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.7421 %</t>
+          <t>0,7421</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.8661 %</t>
+          <t>0,8661</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.859 %</t>
+          <t>0,859</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.8554 %</t>
+          <t>0,8554</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.7281 %</t>
+          <t>0,7281</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.9885 %</t>
+          <t>0,9885</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.9589 %</t>
+          <t>0,9589</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.8147 %</t>
+          <t>0,8147</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.9069 %</t>
+          <t>0,9069</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>1.0518 %</t>
+          <t>1,0518</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.9318 %</t>
+          <t>0,9318</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.9646 %</t>
+          <t>0,9646</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.3304 %</t>
+          <t>1,3304</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>1.0927 %</t>
+          <t>1,0927</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>1.3219 %</t>
+          <t>1,3219</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.8417 %</t>
+          <t>0,8417</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>2.1002 %</t>
+          <t>2,1002</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.8966 %</t>
+          <t>0,8966</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.933 %</t>
+          <t>0,933</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>2.544 %</t>
+          <t>2,544</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.6565 %</t>
+          <t>0,6565</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.5285 %</t>
+          <t>0,5285</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.2831 %</t>
+          <t>1,2831</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>2.6581 %</t>
+          <t>2,6581</t>
         </is>
       </c>
     </row>
@@ -1041,237 +1041,237 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.4275 %</t>
+          <t>1,4275</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.5812 %</t>
+          <t>1,5812</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3827 %</t>
+          <t>0,3827</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3069 %</t>
+          <t>0,3069</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.49 %</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5614 %</t>
+          <t>0,5614</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.6036 %</t>
+          <t>0,6036</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3633 %</t>
+          <t>0,3633</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6107 %</t>
+          <t>0,6107</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6239 %</t>
+          <t>0,6239</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.4955 %</t>
+          <t>0,4955</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5177 %</t>
+          <t>0,5177</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.604 %</t>
+          <t>0,604</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.0584 %</t>
+          <t>3,0584</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.0568 %</t>
+          <t>1,0568</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.545 %</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.8278 %</t>
+          <t>0,8278</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.8399 %</t>
+          <t>2,8399</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.877 %</t>
+          <t>1,877</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.5346 %</t>
+          <t>1,5346</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.568 %</t>
+          <t>1,568</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.5415 %</t>
+          <t>1,5415</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.9127 %</t>
+          <t>1,9127</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2.4227 %</t>
+          <t>2,4227</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2.8804 %</t>
+          <t>2,8804</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>3.1795 %</t>
+          <t>3,1795</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3.6775 %</t>
+          <t>3,6775</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2.8052 %</t>
+          <t>2,8052</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.5771 %</t>
+          <t>1,5771</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1.4288 %</t>
+          <t>1,4288</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.2392 %</t>
+          <t>1,2392</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.5769 %</t>
+          <t>1,5769</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.4095 %</t>
+          <t>1,4095</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.9988 %</t>
+          <t>0,9988</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.1293 %</t>
+          <t>1,1293</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.7631 %</t>
+          <t>0,7631</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.7169 %</t>
+          <t>0,7169</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.7829 %</t>
+          <t>0,7829</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.7642 %</t>
+          <t>0,7642</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.9659 %</t>
+          <t>0,9659</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.7402 %</t>
+          <t>0,7402</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4805 %</t>
+          <t>0,4805</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.5683 %</t>
+          <t>0,5683</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6337 %</t>
+          <t>0,6337</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.7747 %</t>
+          <t>0,7747</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.616 %</t>
+          <t>0,616</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>4.6561 %</t>
+          <t>4,6561</t>
         </is>
       </c>
     </row>
@@ -1283,197 +1283,197 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1164 %</t>
+          <t>2,1164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.337 %</t>
+          <t>1,337</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.7246 %</t>
+          <t>1,7246</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.3357 %</t>
+          <t>3,3357</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.5956 %</t>
+          <t>6,5956</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.1284 %</t>
+          <t>3,1284</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.0562 %</t>
+          <t>2,0562</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.511 %</t>
+          <t>1,511</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.9959 %</t>
+          <t>0,9959</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.6793 %</t>
+          <t>0,6793</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.5588 %</t>
+          <t>0,5588</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.4938 %</t>
+          <t>0,4938</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.4663 %</t>
+          <t>0,4663</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.4324 %</t>
+          <t>0,4324</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.498 %</t>
+          <t>0,498</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.6666 %</t>
+          <t>0,6666</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7665 %</t>
+          <t>0,7665</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.7576 %</t>
+          <t>0,7576</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.2855 %</t>
+          <t>1,2855</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.3233 %</t>
+          <t>1,3233</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.9391 %</t>
+          <t>0,9391</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.921 %</t>
+          <t>0,921</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.9454 %</t>
+          <t>0,9454</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.0254 %</t>
+          <t>1,0254</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1.078 %</t>
+          <t>1,078</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.821 %</t>
+          <t>0,821</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5344 %</t>
+          <t>0,5344</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5596 %</t>
+          <t>0,5596</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.8023 %</t>
+          <t>0,8023</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.9859 %</t>
+          <t>0,9859</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.1351 %</t>
+          <t>1,1351</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.2789 %</t>
+          <t>2,2789</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>3.8546 %</t>
+          <t>3,8546</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>6.3284 %</t>
+          <t>6,3284</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>6.0494 %</t>
+          <t>6,0494</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>9.2536 %</t>
+          <t>9,2536</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.3874 %</t>
+          <t>9,3874</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3.3942 %</t>
+          <t>3,3942</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2.4355 %</t>
+          <t>2,4355</t>
         </is>
       </c>
     </row>
